--- a/sp500_sectors_avg_prices.xlsx
+++ b/sp500_sectors_avg_prices.xlsx
@@ -550,7 +550,7 @@
         <v>388.4114531750949</v>
       </c>
       <c r="D3" t="n">
-        <v>97.10287666320801</v>
+        <v>97.10287505701969</v>
       </c>
       <c r="E3" t="n">
         <v>84.80060320315154</v>
@@ -562,7 +562,7 @@
         <v>212.7984877079725</v>
       </c>
       <c r="H3" t="n">
-        <v>176.0895182536198</v>
+        <v>176.0895182047135</v>
       </c>
       <c r="I3" t="n">
         <v>226.8426657468081</v>
@@ -600,7 +600,7 @@
         <v>211.8584229052067</v>
       </c>
       <c r="H4" t="n">
-        <v>176.4644573162764</v>
+        <v>176.46445726737</v>
       </c>
       <c r="I4" t="n">
         <v>228.1907057762146</v>
@@ -626,19 +626,19 @@
         <v>384.6558029786596</v>
       </c>
       <c r="D5" t="n">
-        <v>96.29515858700401</v>
+        <v>96.29515698081569</v>
       </c>
       <c r="E5" t="n">
         <v>83.27924388387929</v>
       </c>
       <c r="F5" t="n">
-        <v>143.0678181648254</v>
+        <v>143.0678179528978</v>
       </c>
       <c r="G5" t="n">
         <v>208.1737117171288</v>
       </c>
       <c r="H5" t="n">
-        <v>176.8185728513278</v>
+        <v>176.8185729002341</v>
       </c>
       <c r="I5" t="n">
         <v>227.1088055819273</v>
@@ -647,7 +647,7 @@
         <v>122.9038489546095</v>
       </c>
       <c r="K5" t="n">
-        <v>110.3920828603929</v>
+        <v>110.3920829834477</v>
       </c>
       <c r="L5" t="n">
         <v>62.44769983291626</v>
@@ -664,13 +664,13 @@
         <v>392.1029278557256</v>
       </c>
       <c r="D6" t="n">
-        <v>96.96361566844739</v>
+        <v>96.96361406225907</v>
       </c>
       <c r="E6" t="n">
         <v>84.3345371743907</v>
       </c>
       <c r="F6" t="n">
-        <v>144.6144329706828</v>
+        <v>144.6144327587552</v>
       </c>
       <c r="G6" t="n">
         <v>210.0698855221272</v>
@@ -685,7 +685,7 @@
         <v>124.2196905953544</v>
       </c>
       <c r="K6" t="n">
-        <v>111.5983697522071</v>
+        <v>111.5983696291524</v>
       </c>
       <c r="L6" t="n">
         <v>62.66384897232056</v>
@@ -702,7 +702,7 @@
         <v>393.5107769516279</v>
       </c>
       <c r="D7" t="n">
-        <v>97.20805850781892</v>
+        <v>97.20806011400725</v>
       </c>
       <c r="E7" t="n">
         <v>84.91957341069761</v>
@@ -714,7 +714,7 @@
         <v>210.5261103510857</v>
       </c>
       <c r="H7" t="n">
-        <v>179.6937112930493</v>
+        <v>179.6937113908621</v>
       </c>
       <c r="I7" t="n">
         <v>233.1757865101099</v>
@@ -723,7 +723,7 @@
         <v>123.806143283844</v>
       </c>
       <c r="K7" t="n">
-        <v>110.6533094221546</v>
+        <v>110.6533095452093</v>
       </c>
       <c r="L7" t="n">
         <v>61.98468739191691</v>
@@ -746,13 +746,13 @@
         <v>85.77614925218666</v>
       </c>
       <c r="F8" t="n">
-        <v>147.1047039429347</v>
+        <v>147.1047041548623</v>
       </c>
       <c r="G8" t="n">
         <v>213.6068429946899</v>
       </c>
       <c r="H8" t="n">
-        <v>183.6167539205307</v>
+        <v>183.6167538716243</v>
       </c>
       <c r="I8" t="n">
         <v>239.8615845739841</v>
@@ -816,7 +816,7 @@
         <v>401.576023065819</v>
       </c>
       <c r="D10" t="n">
-        <v>98.5214951163844</v>
+        <v>98.52149351019608</v>
       </c>
       <c r="E10" t="n">
         <v>83.82966265471086</v>
@@ -892,7 +892,7 @@
         <v>403.5663219487892</v>
       </c>
       <c r="D12" t="n">
-        <v>98.57405391492341</v>
+        <v>98.57405552111175</v>
       </c>
       <c r="E12" t="n">
         <v>85.89472074094026</v>
@@ -951,7 +951,7 @@
         <v>128.6227513040815</v>
       </c>
       <c r="K13" t="n">
-        <v>116.1611732975129</v>
+        <v>116.1611734205677</v>
       </c>
       <c r="L13" t="n">
         <v>64.5196580251058</v>
@@ -980,7 +980,7 @@
         <v>219.1452084630728</v>
       </c>
       <c r="H14" t="n">
-        <v>185.2403156207158</v>
+        <v>185.2403156696222</v>
       </c>
       <c r="I14" t="n">
         <v>243.3187400698662</v>
@@ -989,7 +989,7 @@
         <v>128.9786412715912</v>
       </c>
       <c r="K14" t="n">
-        <v>116.5486928878292</v>
+        <v>116.548693010884</v>
       </c>
       <c r="L14" t="n">
         <v>64.92479693094889</v>
@@ -1012,7 +1012,7 @@
         <v>85.9564556453539</v>
       </c>
       <c r="F15" t="n">
-        <v>150.5538645585378</v>
+        <v>150.5538647704654</v>
       </c>
       <c r="G15" t="n">
         <v>220.2913248836994</v>
@@ -1027,7 +1027,7 @@
         <v>129.3868963718414</v>
       </c>
       <c r="K15" t="n">
-        <v>116.926234276064</v>
+        <v>116.9262341530092</v>
       </c>
       <c r="L15" t="n">
         <v>65.1190777460734</v>
@@ -1065,7 +1065,7 @@
         <v>129.4772075244359</v>
       </c>
       <c r="K16" t="n">
-        <v>117.2270830215946</v>
+        <v>117.2270831446494</v>
       </c>
       <c r="L16" t="n">
         <v>65.2022533416748</v>
@@ -1094,7 +1094,7 @@
         <v>217.914383366704</v>
       </c>
       <c r="H17" t="n">
-        <v>183.6736246011196</v>
+        <v>183.673624650026</v>
       </c>
       <c r="I17" t="n">
         <v>242.870405703783</v>
@@ -1103,7 +1103,7 @@
         <v>129.2293877261025</v>
       </c>
       <c r="K17" t="n">
-        <v>117.8749848027383</v>
+        <v>117.8749846796836</v>
       </c>
       <c r="L17" t="n">
         <v>65.40707880655924</v>
@@ -1120,13 +1120,13 @@
         <v>399.0864042965871</v>
       </c>
       <c r="D18" t="n">
-        <v>99.25942581578305</v>
+        <v>99.25942742197137</v>
       </c>
       <c r="E18" t="n">
         <v>85.08634384818698</v>
       </c>
       <c r="F18" t="n">
-        <v>150.6767185661528</v>
+        <v>150.6767183542252</v>
       </c>
       <c r="G18" t="n">
         <v>217.6316037923098</v>
@@ -1141,7 +1141,7 @@
         <v>130.056353364672</v>
       </c>
       <c r="K18" t="n">
-        <v>118.7948420124669</v>
+        <v>118.7948421355217</v>
       </c>
       <c r="L18" t="n">
         <v>64.86003424326579</v>
@@ -1202,13 +1202,13 @@
         <v>86.29296244745669</v>
       </c>
       <c r="F20" t="n">
-        <v>153.6325857374403</v>
+        <v>153.632585949368</v>
       </c>
       <c r="G20" t="n">
         <v>221.549371406436</v>
       </c>
       <c r="H20" t="n">
-        <v>189.4585585471911</v>
+        <v>189.4585585960975</v>
       </c>
       <c r="I20" t="n">
         <v>247.5261422693729</v>
@@ -1234,7 +1234,7 @@
         <v>411.1614887129585</v>
       </c>
       <c r="D21" t="n">
-        <v>101.652045902453</v>
+        <v>101.6520442962646</v>
       </c>
       <c r="E21" t="n">
         <v>85.86469384898309</v>
@@ -1255,7 +1255,7 @@
         <v>131.7235304968698</v>
       </c>
       <c r="K21" t="n">
-        <v>122.9029649303805</v>
+        <v>122.9029648073258</v>
       </c>
       <c r="L21" t="n">
         <v>65.87008558909098</v>
@@ -1272,13 +1272,13 @@
         <v>409.8885788107818</v>
       </c>
       <c r="D22" t="n">
-        <v>100.9183320999146</v>
+        <v>100.9183304937262</v>
       </c>
       <c r="E22" t="n">
         <v>84.4344771841298</v>
       </c>
       <c r="F22" t="n">
-        <v>153.0194647709529</v>
+        <v>153.0194649828805</v>
       </c>
       <c r="G22" t="n">
         <v>220.7877342551947</v>
@@ -1407,7 +1407,7 @@
         <v>131.4604135922023</v>
       </c>
       <c r="K25" t="n">
-        <v>121.9110948501095</v>
+        <v>121.9110947270547</v>
       </c>
       <c r="L25" t="n">
         <v>65.59742685953776</v>
@@ -1424,7 +1424,7 @@
         <v>420.8922946138202</v>
       </c>
       <c r="D26" t="n">
-        <v>101.6748057415611</v>
+        <v>101.6748041353728</v>
       </c>
       <c r="E26" t="n">
         <v>83.27945676057234</v>
@@ -1445,7 +1445,7 @@
         <v>132.3681313650949</v>
       </c>
       <c r="K26" t="n">
-        <v>121.9347362518311</v>
+        <v>121.9347361287763</v>
       </c>
       <c r="L26" t="n">
         <v>66.06832955678304</v>
@@ -1462,7 +1462,7 @@
         <v>423.413958243604</v>
       </c>
       <c r="D27" t="n">
-        <v>102.0391704659713</v>
+        <v>102.0391720721596</v>
       </c>
       <c r="E27" t="n">
         <v>82.17541379513948</v>
@@ -1483,7 +1483,7 @@
         <v>133.000268970217</v>
       </c>
       <c r="K27" t="n">
-        <v>121.9904097280195</v>
+        <v>121.9904096049647</v>
       </c>
       <c r="L27" t="n">
         <v>65.80688959757487</v>
@@ -1500,7 +1500,7 @@
         <v>430.3644112281079</v>
       </c>
       <c r="D28" t="n">
-        <v>104.2237140755904</v>
+        <v>104.2237156817788</v>
       </c>
       <c r="E28" t="n">
         <v>83.37642230158266</v>
@@ -1521,7 +1521,7 @@
         <v>135.2497650555202</v>
       </c>
       <c r="K28" t="n">
-        <v>126.0955434614612</v>
+        <v>126.095543584516</v>
       </c>
       <c r="L28" t="n">
         <v>68.10948537190755</v>
@@ -1690,7 +1690,7 @@
         <v>431.9749269485474</v>
       </c>
       <c r="D33" t="n">
-        <v>102.3431551080001</v>
+        <v>102.3431535018118</v>
       </c>
       <c r="E33" t="n">
         <v>86.63416398089865</v>
@@ -1804,7 +1804,7 @@
         <v>437.7327592777756</v>
       </c>
       <c r="D36" t="n">
-        <v>104.3127643183658</v>
+        <v>104.3127659245541</v>
       </c>
       <c r="E36" t="n">
         <v>88.05348769478177</v>
@@ -1863,7 +1863,7 @@
         <v>139.5853140354156</v>
       </c>
       <c r="K37" t="n">
-        <v>129.7475234616187</v>
+        <v>129.7475235846735</v>
       </c>
       <c r="L37" t="n">
         <v>65.79319400787354</v>
